--- a/INTLINE/data/134/DEUSTATIS/old/National accounts - Population and employment quarters.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/old/National accounts - Population and employment quarters.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="66">
   <si>
     <t>National accounts - Population, employment: Germany,
 quarters, original and adjusted data</t>
@@ -144,9 +144,6 @@
     <t>1000</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Economically inactive population</t>
   </si>
   <si>
@@ -213,7 +210,7 @@
     <t>Including family workers.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 09:42:07</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:14:33</t>
   </si>
 </sst>
 </file>
@@ -3840,216 +3837,216 @@
         <v>83194.0</v>
       </c>
       <c r="DS7" t="n" s="11">
-        <v>83127.0</v>
+        <v>83158.0</v>
       </c>
       <c r="DT7" t="n" s="11">
-        <v>83124.0</v>
-      </c>
-      <c r="DU7" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV7" t="s" s="11">
-        <v>43</v>
+        <v>83153.0</v>
+      </c>
+      <c r="DU7" t="n" s="11">
+        <v>83199.0</v>
+      </c>
+      <c r="DV7" t="n" s="11">
+        <v>83273.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s" s="14">
         <v>42</v>
       </c>
       <c r="C8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AJ8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AK8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AL8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AM8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AN8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AP8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AQ8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AR8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AS8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AT8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AU8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AV8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AW8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AX8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AY8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AZ8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BA8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BB8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BC8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BD8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BE8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BG8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BH8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BI8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BJ8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BK8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BL8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BM8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BN8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BO8" t="n" s="11">
         <v>37545.0</v>
@@ -4220,216 +4217,216 @@
         <v>36692.0</v>
       </c>
       <c r="DS8" t="n" s="11">
-        <v>36985.0</v>
+        <v>37030.0</v>
       </c>
       <c r="DT8" t="n" s="11">
-        <v>36930.0</v>
-      </c>
-      <c r="DU8" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV8" t="s" s="11">
-        <v>43</v>
+        <v>36954.0</v>
+      </c>
+      <c r="DU8" t="n" s="11">
+        <v>36893.0</v>
+      </c>
+      <c r="DV8" t="n" s="11">
+        <v>36668.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="10">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s" s="14">
         <v>42</v>
       </c>
       <c r="C9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AJ9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AK9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AL9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AM9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AN9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AP9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AQ9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AR9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AS9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AT9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AU9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AV9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AW9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AX9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AY9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AZ9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BA9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BB9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BC9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BD9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BE9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BG9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BH9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BI9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BJ9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BK9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BL9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BM9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BN9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BO9" t="n" s="11">
         <v>43473.0</v>
@@ -4600,216 +4597,216 @@
         <v>46502.0</v>
       </c>
       <c r="DS9" t="n" s="11">
-        <v>46142.0</v>
+        <v>46128.0</v>
       </c>
       <c r="DT9" t="n" s="11">
-        <v>46194.0</v>
-      </c>
-      <c r="DU9" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV9" t="s" s="11">
-        <v>43</v>
+        <v>46199.0</v>
+      </c>
+      <c r="DU9" t="n" s="11">
+        <v>46306.0</v>
+      </c>
+      <c r="DV9" t="n" s="11">
+        <v>46605.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s" s="14">
         <v>42</v>
       </c>
       <c r="C10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AJ10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AK10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AL10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AM10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AN10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AP10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AQ10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AR10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AS10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AT10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AU10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AV10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AW10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AX10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AY10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AZ10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BA10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BB10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BC10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BD10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BE10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BG10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BH10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BI10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BJ10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BK10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BL10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BM10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BN10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BO10" t="n" s="11">
         <v>3770.0</v>
@@ -4980,21 +4977,21 @@
         <v>1623.0</v>
       </c>
       <c r="DS10" t="n" s="11">
-        <v>1754.0</v>
+        <v>1738.0</v>
       </c>
       <c r="DT10" t="n" s="11">
-        <v>1600.0</v>
-      </c>
-      <c r="DU10" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV10" t="s" s="11">
-        <v>43</v>
+        <v>1580.0</v>
+      </c>
+      <c r="DU10" t="n" s="11">
+        <v>1390.0</v>
+      </c>
+      <c r="DV10" t="n" s="11">
+        <v>1315.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="14">
         <v>42</v>
@@ -5360,21 +5357,21 @@
         <v>44879.0</v>
       </c>
       <c r="DS11" t="n" s="11">
-        <v>44388.0</v>
+        <v>44390.0</v>
       </c>
       <c r="DT11" t="n" s="11">
-        <v>44594.0</v>
-      </c>
-      <c r="DU11" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV11" t="s" s="11">
-        <v>43</v>
+        <v>44619.0</v>
+      </c>
+      <c r="DU11" t="n" s="11">
+        <v>44916.0</v>
+      </c>
+      <c r="DV11" t="n" s="11">
+        <v>45290.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s" s="14">
         <v>42</v>
@@ -5743,18 +5740,18 @@
         <v>3947.0</v>
       </c>
       <c r="DT12" t="n" s="11">
-        <v>3925.0</v>
-      </c>
-      <c r="DU12" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV12" t="s" s="11">
-        <v>43</v>
+        <v>3924.0</v>
+      </c>
+      <c r="DU12" t="n" s="11">
+        <v>3932.0</v>
+      </c>
+      <c r="DV12" t="n" s="11">
+        <v>3913.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="14">
         <v>42</v>
@@ -6120,21 +6117,21 @@
         <v>40897.0</v>
       </c>
       <c r="DS13" t="n" s="11">
-        <v>40441.0</v>
+        <v>40443.0</v>
       </c>
       <c r="DT13" t="n" s="11">
-        <v>40669.0</v>
-      </c>
-      <c r="DU13" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV13" t="s" s="11">
-        <v>43</v>
+        <v>40695.0</v>
+      </c>
+      <c r="DU13" t="n" s="11">
+        <v>40984.0</v>
+      </c>
+      <c r="DV13" t="n" s="11">
+        <v>41377.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s" s="14">
         <v>42</v>
@@ -6500,21 +6497,21 @@
         <v>86.0</v>
       </c>
       <c r="DS14" t="n" s="11">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="DT14" t="n" s="11">
-        <v>122.0</v>
-      </c>
-      <c r="DU14" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV14" t="s" s="11">
-        <v>43</v>
+        <v>123.0</v>
+      </c>
+      <c r="DU14" t="n" s="11">
+        <v>172.0</v>
+      </c>
+      <c r="DV14" t="n" s="11">
+        <v>109.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="10">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s" s="14">
         <v>42</v>
@@ -6880,21 +6877,21 @@
         <v>40983.0</v>
       </c>
       <c r="DS15" t="n" s="11">
-        <v>40501.0</v>
+        <v>40504.0</v>
       </c>
       <c r="DT15" t="n" s="11">
-        <v>40791.0</v>
-      </c>
-      <c r="DU15" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV15" t="s" s="11">
-        <v>43</v>
+        <v>40818.0</v>
+      </c>
+      <c r="DU15" t="n" s="11">
+        <v>41156.0</v>
+      </c>
+      <c r="DV15" t="n" s="11">
+        <v>41486.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s" s="14">
         <v>42</v>
@@ -7263,18 +7260,18 @@
         <v>3947.0</v>
       </c>
       <c r="DT16" t="n" s="11">
-        <v>3925.0</v>
-      </c>
-      <c r="DU16" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV16" t="s" s="11">
-        <v>43</v>
+        <v>3924.0</v>
+      </c>
+      <c r="DU16" t="n" s="11">
+        <v>3932.0</v>
+      </c>
+      <c r="DV16" t="n" s="11">
+        <v>3913.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="10">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s" s="14">
         <v>42</v>
@@ -7640,216 +7637,216 @@
         <v>44965.0</v>
       </c>
       <c r="DS17" t="n" s="11">
-        <v>44448.0</v>
+        <v>44451.0</v>
       </c>
       <c r="DT17" t="n" s="11">
-        <v>44716.0</v>
-      </c>
-      <c r="DU17" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV17" t="s" s="11">
-        <v>43</v>
+        <v>44742.0</v>
+      </c>
+      <c r="DU17" t="n" s="11">
+        <v>45088.0</v>
+      </c>
+      <c r="DV17" t="n" s="11">
+        <v>45399.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="10">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s" s="14">
         <v>55</v>
       </c>
-      <c r="B18" t="s" s="14">
-        <v>56</v>
-      </c>
       <c r="C18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AJ18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AK18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AL18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AM18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AN18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AP18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AQ18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AR18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AS18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AT18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AU18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AV18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AW18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AX18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AY18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AZ18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BA18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BB18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BC18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BD18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BE18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BG18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BH18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BI18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BJ18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BK18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BL18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BM18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BN18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BO18" t="n" s="11">
         <v>53.7</v>
@@ -8025,211 +8022,211 @@
       <c r="DT18" t="n" s="11">
         <v>55.6</v>
       </c>
-      <c r="DU18" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV18" t="s" s="11">
-        <v>43</v>
+      <c r="DU18" t="n" s="11">
+        <v>55.7</v>
+      </c>
+      <c r="DV18" t="n" s="11">
+        <v>56.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s" s="14">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AJ19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AK19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AL19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AM19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AN19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AP19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AQ19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AR19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AS19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AT19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AU19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AV19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AW19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AX19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AY19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AZ19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BA19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BB19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BC19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BD19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BE19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BG19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BH19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BI19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BJ19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BK19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BL19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BM19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BN19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BO19" t="n" s="11">
         <v>8.7</v>
@@ -8403,18 +8400,18 @@
         <v>3.8</v>
       </c>
       <c r="DT19" t="n" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="DU19" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV19" t="s" s="11">
-        <v>43</v>
+        <v>3.4</v>
+      </c>
+      <c r="DU19" t="n" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="DV19" t="n" s="11">
+        <v>2.8</v>
       </c>
     </row>
     <row r="20" ht="33.75" customHeight="true">
       <c r="A20" t="s" s="15">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21">
@@ -8785,21 +8782,21 @@
         <v>83159.0</v>
       </c>
       <c r="DS21" t="n" s="11">
-        <v>83132.0</v>
+        <v>83163.0</v>
       </c>
       <c r="DT21" t="n" s="11">
-        <v>83145.0</v>
-      </c>
-      <c r="DU21" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV21" t="s" s="11">
-        <v>43</v>
+        <v>83174.0</v>
+      </c>
+      <c r="DU21" t="n" s="11">
+        <v>83208.0</v>
+      </c>
+      <c r="DV21" t="n" s="11">
+        <v>83238.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s" s="14">
         <v>42</v>
@@ -8874,7 +8871,7 @@
         <v>39996.0</v>
       </c>
       <c r="Z22" t="n" s="11">
-        <v>39959.0</v>
+        <v>39960.0</v>
       </c>
       <c r="AA22" t="n" s="11">
         <v>39920.0</v>
@@ -8898,7 +8895,7 @@
         <v>39242.0</v>
       </c>
       <c r="AH22" t="n" s="11">
-        <v>39149.0</v>
+        <v>39150.0</v>
       </c>
       <c r="AI22" t="n" s="11">
         <v>39150.0</v>
@@ -8913,7 +8910,7 @@
         <v>38831.0</v>
       </c>
       <c r="AM22" t="n" s="11">
-        <v>38557.0</v>
+        <v>38558.0</v>
       </c>
       <c r="AN22" t="n" s="11">
         <v>38471.0</v>
@@ -8949,7 +8946,7 @@
         <v>38649.0</v>
       </c>
       <c r="AY22" t="n" s="11">
-        <v>38613.0</v>
+        <v>38615.0</v>
       </c>
       <c r="AZ22" t="n" s="11">
         <v>38686.0</v>
@@ -8979,7 +8976,7 @@
         <v>37733.0</v>
       </c>
       <c r="BI22" t="n" s="11">
-        <v>37624.0</v>
+        <v>37623.0</v>
       </c>
       <c r="BJ22" t="n" s="11">
         <v>37580.0</v>
@@ -8988,13 +8985,13 @@
         <v>37806.0</v>
       </c>
       <c r="BL22" t="n" s="11">
-        <v>37654.0</v>
+        <v>37653.0</v>
       </c>
       <c r="BM22" t="n" s="11">
         <v>37485.0</v>
       </c>
       <c r="BN22" t="n" s="11">
-        <v>37428.0</v>
+        <v>37427.0</v>
       </c>
       <c r="BO22" t="n" s="11">
         <v>37389.0</v>
@@ -9009,7 +9006,7 @@
         <v>37182.0</v>
       </c>
       <c r="BS22" t="n" s="11">
-        <v>37017.0</v>
+        <v>37018.0</v>
       </c>
       <c r="BT22" t="n" s="11">
         <v>37004.0</v>
@@ -9105,7 +9102,7 @@
         <v>36949.0</v>
       </c>
       <c r="CY22" t="n" s="11">
-        <v>37015.0</v>
+        <v>37016.0</v>
       </c>
       <c r="CZ22" t="n" s="11">
         <v>37008.0</v>
@@ -9117,69 +9114,69 @@
         <v>36991.0</v>
       </c>
       <c r="DC22" t="n" s="11">
-        <v>36971.0</v>
+        <v>36972.0</v>
       </c>
       <c r="DD22" t="n" s="11">
         <v>36943.0</v>
       </c>
       <c r="DE22" t="n" s="11">
-        <v>36876.0</v>
+        <v>36875.0</v>
       </c>
       <c r="DF22" t="n" s="11">
-        <v>36833.0</v>
+        <v>36834.0</v>
       </c>
       <c r="DG22" t="n" s="11">
-        <v>36771.0</v>
+        <v>36770.0</v>
       </c>
       <c r="DH22" t="n" s="11">
-        <v>36713.0</v>
+        <v>36712.0</v>
       </c>
       <c r="DI22" t="n" s="11">
-        <v>36700.0</v>
+        <v>36698.0</v>
       </c>
       <c r="DJ22" t="n" s="11">
-        <v>36683.0</v>
+        <v>36685.0</v>
       </c>
       <c r="DK22" t="n" s="11">
-        <v>36608.0</v>
+        <v>36610.0</v>
       </c>
       <c r="DL22" t="n" s="11">
-        <v>36590.0</v>
+        <v>36596.0</v>
       </c>
       <c r="DM22" t="n" s="11">
-        <v>36634.0</v>
+        <v>36623.0</v>
       </c>
       <c r="DN22" t="n" s="11">
-        <v>36537.0</v>
+        <v>36542.0</v>
       </c>
       <c r="DO22" t="n" s="11">
-        <v>36400.0</v>
+        <v>36402.0</v>
       </c>
       <c r="DP22" t="n" s="11">
-        <v>36796.0</v>
+        <v>36791.0</v>
       </c>
       <c r="DQ22" t="n" s="11">
-        <v>36759.0</v>
+        <v>36747.0</v>
       </c>
       <c r="DR22" t="n" s="11">
-        <v>36762.0</v>
+        <v>36770.0</v>
       </c>
       <c r="DS22" t="n" s="11">
-        <v>36881.0</v>
+        <v>36923.0</v>
       </c>
       <c r="DT22" t="n" s="11">
-        <v>36887.0</v>
-      </c>
-      <c r="DU22" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV22" t="s" s="11">
-        <v>43</v>
+        <v>36921.0</v>
+      </c>
+      <c r="DU22" t="n" s="11">
+        <v>36863.0</v>
+      </c>
+      <c r="DV22" t="n" s="11">
+        <v>36816.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="10">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s" s="14">
         <v>42</v>
@@ -9254,7 +9251,7 @@
         <v>41490.0</v>
       </c>
       <c r="Z23" t="n" s="11">
-        <v>41551.0</v>
+        <v>41550.0</v>
       </c>
       <c r="AA23" t="n" s="11">
         <v>41596.0</v>
@@ -9278,7 +9275,7 @@
         <v>42183.0</v>
       </c>
       <c r="AH23" t="n" s="11">
-        <v>42253.0</v>
+        <v>42252.0</v>
       </c>
       <c r="AI23" t="n" s="11">
         <v>42252.0</v>
@@ -9293,7 +9290,7 @@
         <v>42609.0</v>
       </c>
       <c r="AM23" t="n" s="11">
-        <v>42895.0</v>
+        <v>42894.0</v>
       </c>
       <c r="AN23" t="n" s="11">
         <v>42983.0</v>
@@ -9329,7 +9326,7 @@
         <v>42935.0</v>
       </c>
       <c r="AY23" t="n" s="11">
-        <v>42966.0</v>
+        <v>42964.0</v>
       </c>
       <c r="AZ23" t="n" s="11">
         <v>42874.0</v>
@@ -9359,7 +9356,7 @@
         <v>43621.0</v>
       </c>
       <c r="BI23" t="n" s="11">
-        <v>43702.0</v>
+        <v>43703.0</v>
       </c>
       <c r="BJ23" t="n" s="11">
         <v>43706.0</v>
@@ -9368,13 +9365,13 @@
         <v>43435.0</v>
       </c>
       <c r="BL23" t="n" s="11">
-        <v>43549.0</v>
+        <v>43550.0</v>
       </c>
       <c r="BM23" t="n" s="11">
         <v>43665.0</v>
       </c>
       <c r="BN23" t="n" s="11">
-        <v>43673.0</v>
+        <v>43674.0</v>
       </c>
       <c r="BO23" t="n" s="11">
         <v>43661.0</v>
@@ -9389,7 +9386,7 @@
         <v>43750.0</v>
       </c>
       <c r="BS23" t="n" s="11">
-        <v>43835.0</v>
+        <v>43834.0</v>
       </c>
       <c r="BT23" t="n" s="11">
         <v>43797.0</v>
@@ -9485,7 +9482,7 @@
         <v>45138.0</v>
       </c>
       <c r="CY23" t="n" s="11">
-        <v>45206.0</v>
+        <v>45205.0</v>
       </c>
       <c r="CZ23" t="n" s="11">
         <v>45313.0</v>
@@ -9497,69 +9494,69 @@
         <v>45474.0</v>
       </c>
       <c r="DC23" t="n" s="11">
-        <v>45578.0</v>
+        <v>45577.0</v>
       </c>
       <c r="DD23" t="n" s="11">
         <v>45700.0</v>
       </c>
       <c r="DE23" t="n" s="11">
-        <v>45821.0</v>
+        <v>45822.0</v>
       </c>
       <c r="DF23" t="n" s="11">
-        <v>45907.0</v>
+        <v>45906.0</v>
       </c>
       <c r="DG23" t="n" s="11">
-        <v>46047.0</v>
+        <v>46048.0</v>
       </c>
       <c r="DH23" t="n" s="11">
-        <v>46155.0</v>
+        <v>46156.0</v>
       </c>
       <c r="DI23" t="n" s="11">
-        <v>46239.0</v>
+        <v>46241.0</v>
       </c>
       <c r="DJ23" t="n" s="11">
-        <v>46315.0</v>
+        <v>46313.0</v>
       </c>
       <c r="DK23" t="n" s="11">
-        <v>46435.0</v>
+        <v>46433.0</v>
       </c>
       <c r="DL23" t="n" s="11">
-        <v>46488.0</v>
+        <v>46482.0</v>
       </c>
       <c r="DM23" t="n" s="11">
-        <v>46473.0</v>
+        <v>46484.0</v>
       </c>
       <c r="DN23" t="n" s="11">
-        <v>46606.0</v>
+        <v>46601.0</v>
       </c>
       <c r="DO23" t="n" s="11">
-        <v>46776.0</v>
+        <v>46774.0</v>
       </c>
       <c r="DP23" t="n" s="11">
-        <v>46353.0</v>
+        <v>46358.0</v>
       </c>
       <c r="DQ23" t="n" s="11">
-        <v>46401.0</v>
+        <v>46413.0</v>
       </c>
       <c r="DR23" t="n" s="11">
-        <v>46397.0</v>
+        <v>46389.0</v>
       </c>
       <c r="DS23" t="n" s="11">
-        <v>46251.0</v>
+        <v>46240.0</v>
       </c>
       <c r="DT23" t="n" s="11">
-        <v>46258.0</v>
-      </c>
-      <c r="DU23" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV23" t="s" s="11">
-        <v>43</v>
+        <v>46253.0</v>
+      </c>
+      <c r="DU23" t="n" s="11">
+        <v>46345.0</v>
+      </c>
+      <c r="DV23" t="n" s="11">
+        <v>46422.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s" s="14">
         <v>42</v>
@@ -9904,10 +9901,10 @@
         <v>1400.0</v>
       </c>
       <c r="DL24" t="n" s="11">
-        <v>1360.0</v>
+        <v>1350.0</v>
       </c>
       <c r="DM24" t="n" s="11">
-        <v>1330.0</v>
+        <v>1340.0</v>
       </c>
       <c r="DN24" t="n" s="11">
         <v>1410.0</v>
@@ -9919,27 +9916,27 @@
         <v>1670.0</v>
       </c>
       <c r="DQ24" t="n" s="11">
-        <v>1760.0</v>
+        <v>1770.0</v>
       </c>
       <c r="DR24" t="n" s="11">
         <v>1750.0</v>
       </c>
       <c r="DS24" t="n" s="11">
-        <v>1670.0</v>
+        <v>1660.0</v>
       </c>
       <c r="DT24" t="n" s="11">
-        <v>1600.0</v>
-      </c>
-      <c r="DU24" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV24" t="s" s="11">
-        <v>43</v>
+        <v>1560.0</v>
+      </c>
+      <c r="DU24" t="n" s="11">
+        <v>1450.0</v>
+      </c>
+      <c r="DV24" t="n" s="11">
+        <v>1380.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s" s="14">
         <v>42</v>
@@ -10014,7 +10011,7 @@
         <v>37980.0</v>
       </c>
       <c r="Z25" t="n" s="11">
-        <v>37931.0</v>
+        <v>37930.0</v>
       </c>
       <c r="AA25" t="n" s="11">
         <v>37876.0</v>
@@ -10038,7 +10035,7 @@
         <v>38533.0</v>
       </c>
       <c r="AH25" t="n" s="11">
-        <v>38693.0</v>
+        <v>38692.0</v>
       </c>
       <c r="AI25" t="n" s="11">
         <v>38772.0</v>
@@ -10053,7 +10050,7 @@
         <v>39349.0</v>
       </c>
       <c r="AM25" t="n" s="11">
-        <v>39715.0</v>
+        <v>39714.0</v>
       </c>
       <c r="AN25" t="n" s="11">
         <v>39853.0</v>
@@ -10089,7 +10086,7 @@
         <v>39355.0</v>
       </c>
       <c r="AY25" t="n" s="11">
-        <v>39226.0</v>
+        <v>39224.0</v>
       </c>
       <c r="AZ25" t="n" s="11">
         <v>39044.0</v>
@@ -10119,7 +10116,7 @@
         <v>39121.0</v>
       </c>
       <c r="BI25" t="n" s="11">
-        <v>39212.0</v>
+        <v>39213.0</v>
       </c>
       <c r="BJ25" t="n" s="11">
         <v>39346.0</v>
@@ -10128,13 +10125,13 @@
         <v>39195.0</v>
       </c>
       <c r="BL25" t="n" s="11">
-        <v>39429.0</v>
+        <v>39430.0</v>
       </c>
       <c r="BM25" t="n" s="11">
         <v>39655.0</v>
       </c>
       <c r="BN25" t="n" s="11">
-        <v>39793.0</v>
+        <v>39794.0</v>
       </c>
       <c r="BO25" t="n" s="11">
         <v>39991.0</v>
@@ -10149,7 +10146,7 @@
         <v>40420.0</v>
       </c>
       <c r="BS25" t="n" s="11">
-        <v>40655.0</v>
+        <v>40654.0</v>
       </c>
       <c r="BT25" t="n" s="11">
         <v>40737.0</v>
@@ -10245,7 +10242,7 @@
         <v>43238.0</v>
       </c>
       <c r="CY25" t="n" s="11">
-        <v>43346.0</v>
+        <v>43345.0</v>
       </c>
       <c r="CZ25" t="n" s="11">
         <v>43493.0</v>
@@ -10257,69 +10254,69 @@
         <v>43784.0</v>
       </c>
       <c r="DC25" t="n" s="11">
-        <v>43908.0</v>
+        <v>43907.0</v>
       </c>
       <c r="DD25" t="n" s="11">
         <v>44060.0</v>
       </c>
       <c r="DE25" t="n" s="11">
-        <v>44211.0</v>
+        <v>44212.0</v>
       </c>
       <c r="DF25" t="n" s="11">
-        <v>44347.0</v>
+        <v>44346.0</v>
       </c>
       <c r="DG25" t="n" s="11">
-        <v>44537.0</v>
+        <v>44538.0</v>
       </c>
       <c r="DH25" t="n" s="11">
-        <v>44675.0</v>
+        <v>44676.0</v>
       </c>
       <c r="DI25" t="n" s="11">
-        <v>44779.0</v>
+        <v>44781.0</v>
       </c>
       <c r="DJ25" t="n" s="11">
-        <v>44885.0</v>
+        <v>44883.0</v>
       </c>
       <c r="DK25" t="n" s="11">
-        <v>45035.0</v>
+        <v>45033.0</v>
       </c>
       <c r="DL25" t="n" s="11">
-        <v>45128.0</v>
+        <v>45132.0</v>
       </c>
       <c r="DM25" t="n" s="11">
-        <v>45143.0</v>
+        <v>45144.0</v>
       </c>
       <c r="DN25" t="n" s="11">
-        <v>45196.0</v>
+        <v>45191.0</v>
       </c>
       <c r="DO25" t="n" s="11">
-        <v>45246.0</v>
+        <v>45244.0</v>
       </c>
       <c r="DP25" t="n" s="11">
-        <v>44683.0</v>
+        <v>44688.0</v>
       </c>
       <c r="DQ25" t="n" s="11">
-        <v>44641.0</v>
+        <v>44643.0</v>
       </c>
       <c r="DR25" t="n" s="11">
-        <v>44647.0</v>
+        <v>44639.0</v>
       </c>
       <c r="DS25" t="n" s="11">
-        <v>44581.0</v>
+        <v>44580.0</v>
       </c>
       <c r="DT25" t="n" s="11">
-        <v>44658.0</v>
-      </c>
-      <c r="DU25" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV25" t="s" s="11">
-        <v>43</v>
+        <v>44693.0</v>
+      </c>
+      <c r="DU25" t="n" s="11">
+        <v>44895.0</v>
+      </c>
+      <c r="DV25" t="n" s="11">
+        <v>45042.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s" s="14">
         <v>42</v>
@@ -10370,7 +10367,7 @@
         <v>3757.0</v>
       </c>
       <c r="R26" t="n" s="11">
-        <v>3772.0</v>
+        <v>3773.0</v>
       </c>
       <c r="S26" t="n" s="11">
         <v>3773.0</v>
@@ -10394,7 +10391,7 @@
         <v>3864.0</v>
       </c>
       <c r="Z26" t="n" s="11">
-        <v>3879.0</v>
+        <v>3878.0</v>
       </c>
       <c r="AA26" t="n" s="11">
         <v>3898.0</v>
@@ -10418,7 +10415,7 @@
         <v>3968.0</v>
       </c>
       <c r="AH26" t="n" s="11">
-        <v>3975.0</v>
+        <v>3974.0</v>
       </c>
       <c r="AI26" t="n" s="11">
         <v>3984.0</v>
@@ -10433,7 +10430,7 @@
         <v>4000.0</v>
       </c>
       <c r="AM26" t="n" s="11">
-        <v>4006.0</v>
+        <v>4005.0</v>
       </c>
       <c r="AN26" t="n" s="11">
         <v>4010.0</v>
@@ -10442,7 +10439,7 @@
         <v>4015.0</v>
       </c>
       <c r="AP26" t="n" s="11">
-        <v>4020.0</v>
+        <v>4021.0</v>
       </c>
       <c r="AQ26" t="n" s="11">
         <v>4017.0</v>
@@ -10469,7 +10466,7 @@
         <v>4085.0</v>
       </c>
       <c r="AY26" t="n" s="11">
-        <v>4100.0</v>
+        <v>4099.0</v>
       </c>
       <c r="AZ26" t="n" s="11">
         <v>4120.0</v>
@@ -10481,7 +10478,7 @@
         <v>4172.0</v>
       </c>
       <c r="BC26" t="n" s="11">
-        <v>4213.0</v>
+        <v>4214.0</v>
       </c>
       <c r="BD26" t="n" s="11">
         <v>4245.0</v>
@@ -10490,7 +10487,7 @@
         <v>4276.0</v>
       </c>
       <c r="BF26" t="n" s="11">
-        <v>4309.0</v>
+        <v>4308.0</v>
       </c>
       <c r="BG26" t="n" s="11">
         <v>4348.0</v>
@@ -10499,7 +10496,7 @@
         <v>4374.0</v>
       </c>
       <c r="BI26" t="n" s="11">
-        <v>4394.0</v>
+        <v>4395.0</v>
       </c>
       <c r="BJ26" t="n" s="11">
         <v>4409.0</v>
@@ -10508,16 +10505,16 @@
         <v>4422.0</v>
       </c>
       <c r="BL26" t="n" s="11">
-        <v>4431.0</v>
+        <v>4432.0</v>
       </c>
       <c r="BM26" t="n" s="11">
-        <v>4440.0</v>
+        <v>4441.0</v>
       </c>
       <c r="BN26" t="n" s="11">
-        <v>4450.0</v>
+        <v>4451.0</v>
       </c>
       <c r="BO26" t="n" s="11">
-        <v>4460.0</v>
+        <v>4461.0</v>
       </c>
       <c r="BP26" t="n" s="11">
         <v>4468.0</v>
@@ -10526,19 +10523,19 @@
         <v>4472.0</v>
       </c>
       <c r="BR26" t="n" s="11">
-        <v>4475.0</v>
+        <v>4474.0</v>
       </c>
       <c r="BS26" t="n" s="11">
+        <v>4477.0</v>
+      </c>
+      <c r="BT26" t="n" s="11">
         <v>4478.0</v>
-      </c>
-      <c r="BT26" t="n" s="11">
-        <v>4477.0</v>
       </c>
       <c r="BU26" t="n" s="11">
         <v>4479.0</v>
       </c>
       <c r="BV26" t="n" s="11">
-        <v>4483.0</v>
+        <v>4482.0</v>
       </c>
       <c r="BW26" t="n" s="11">
         <v>4483.0</v>
@@ -10592,7 +10589,7 @@
         <v>4506.0</v>
       </c>
       <c r="CN26" t="n" s="11">
-        <v>4498.0</v>
+        <v>4499.0</v>
       </c>
       <c r="CO26" t="n" s="11">
         <v>4492.0</v>
@@ -10625,13 +10622,13 @@
         <v>4383.0</v>
       </c>
       <c r="CY26" t="n" s="11">
-        <v>4369.0</v>
+        <v>4368.0</v>
       </c>
       <c r="CZ26" t="n" s="11">
         <v>4351.0</v>
       </c>
       <c r="DA26" t="n" s="11">
-        <v>4333.0</v>
+        <v>4332.0</v>
       </c>
       <c r="DB26" t="n" s="11">
         <v>4314.0</v>
@@ -10649,57 +10646,57 @@
         <v>4254.0</v>
       </c>
       <c r="DG26" t="n" s="11">
-        <v>4242.0</v>
+        <v>4243.0</v>
       </c>
       <c r="DH26" t="n" s="11">
-        <v>4231.0</v>
+        <v>4232.0</v>
       </c>
       <c r="DI26" t="n" s="11">
-        <v>4216.0</v>
+        <v>4217.0</v>
       </c>
       <c r="DJ26" t="n" s="11">
         <v>4203.0</v>
       </c>
       <c r="DK26" t="n" s="11">
-        <v>4187.0</v>
+        <v>4186.0</v>
       </c>
       <c r="DL26" t="n" s="11">
-        <v>4165.0</v>
+        <v>4166.0</v>
       </c>
       <c r="DM26" t="n" s="11">
         <v>4139.0</v>
       </c>
       <c r="DN26" t="n" s="11">
-        <v>4115.0</v>
+        <v>4113.0</v>
       </c>
       <c r="DO26" t="n" s="11">
         <v>4087.0</v>
       </c>
       <c r="DP26" t="n" s="11">
-        <v>4054.0</v>
+        <v>4055.0</v>
       </c>
       <c r="DQ26" t="n" s="11">
         <v>4025.0</v>
       </c>
       <c r="DR26" t="n" s="11">
-        <v>3985.0</v>
+        <v>3984.0</v>
       </c>
       <c r="DS26" t="n" s="11">
-        <v>3950.0</v>
+        <v>3948.0</v>
       </c>
       <c r="DT26" t="n" s="11">
         <v>3929.0</v>
       </c>
-      <c r="DU26" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV26" t="s" s="11">
-        <v>43</v>
+      <c r="DU26" t="n" s="11">
+        <v>3922.0</v>
+      </c>
+      <c r="DV26" t="n" s="11">
+        <v>3916.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s" s="14">
         <v>42</v>
@@ -10750,7 +10747,7 @@
         <v>34108.0</v>
       </c>
       <c r="R27" t="n" s="11">
-        <v>34166.0</v>
+        <v>34165.0</v>
       </c>
       <c r="S27" t="n" s="11">
         <v>34157.0</v>
@@ -10822,7 +10819,7 @@
         <v>35884.0</v>
       </c>
       <c r="AP27" t="n" s="11">
-        <v>35897.0</v>
+        <v>35896.0</v>
       </c>
       <c r="AQ27" t="n" s="11">
         <v>35741.0</v>
@@ -10849,7 +10846,7 @@
         <v>35270.0</v>
       </c>
       <c r="AY27" t="n" s="11">
-        <v>35126.0</v>
+        <v>35125.0</v>
       </c>
       <c r="AZ27" t="n" s="11">
         <v>34924.0</v>
@@ -10861,7 +10858,7 @@
         <v>34918.0</v>
       </c>
       <c r="BC27" t="n" s="11">
-        <v>34988.0</v>
+        <v>34987.0</v>
       </c>
       <c r="BD27" t="n" s="11">
         <v>35032.0</v>
@@ -10870,7 +10867,7 @@
         <v>34981.0</v>
       </c>
       <c r="BF27" t="n" s="11">
-        <v>34927.0</v>
+        <v>34928.0</v>
       </c>
       <c r="BG27" t="n" s="11">
         <v>34794.0</v>
@@ -10891,13 +10888,13 @@
         <v>34998.0</v>
       </c>
       <c r="BM27" t="n" s="11">
-        <v>35215.0</v>
+        <v>35214.0</v>
       </c>
       <c r="BN27" t="n" s="11">
         <v>35343.0</v>
       </c>
       <c r="BO27" t="n" s="11">
-        <v>35531.0</v>
+        <v>35530.0</v>
       </c>
       <c r="BP27" t="n" s="11">
         <v>35686.0</v>
@@ -10906,19 +10903,19 @@
         <v>35791.0</v>
       </c>
       <c r="BR27" t="n" s="11">
-        <v>35945.0</v>
+        <v>35946.0</v>
       </c>
       <c r="BS27" t="n" s="11">
         <v>36177.0</v>
       </c>
       <c r="BT27" t="n" s="11">
-        <v>36260.0</v>
+        <v>36259.0</v>
       </c>
       <c r="BU27" t="n" s="11">
         <v>36372.0</v>
       </c>
       <c r="BV27" t="n" s="11">
-        <v>36462.0</v>
+        <v>36463.0</v>
       </c>
       <c r="BW27" t="n" s="11">
         <v>36481.0</v>
@@ -10972,7 +10969,7 @@
         <v>37677.0</v>
       </c>
       <c r="CN27" t="n" s="11">
-        <v>37728.0</v>
+        <v>37727.0</v>
       </c>
       <c r="CO27" t="n" s="11">
         <v>37833.0</v>
@@ -11011,22 +11008,22 @@
         <v>39142.0</v>
       </c>
       <c r="DA27" t="n" s="11">
-        <v>39288.0</v>
+        <v>39289.0</v>
       </c>
       <c r="DB27" t="n" s="11">
         <v>39470.0</v>
       </c>
       <c r="DC27" t="n" s="11">
-        <v>39613.0</v>
+        <v>39612.0</v>
       </c>
       <c r="DD27" t="n" s="11">
         <v>39782.0</v>
       </c>
       <c r="DE27" t="n" s="11">
-        <v>39947.0</v>
+        <v>39948.0</v>
       </c>
       <c r="DF27" t="n" s="11">
-        <v>40093.0</v>
+        <v>40092.0</v>
       </c>
       <c r="DG27" t="n" s="11">
         <v>40295.0</v>
@@ -11035,51 +11032,51 @@
         <v>40444.0</v>
       </c>
       <c r="DI27" t="n" s="11">
-        <v>40563.0</v>
+        <v>40564.0</v>
       </c>
       <c r="DJ27" t="n" s="11">
-        <v>40682.0</v>
+        <v>40680.0</v>
       </c>
       <c r="DK27" t="n" s="11">
-        <v>40848.0</v>
+        <v>40847.0</v>
       </c>
       <c r="DL27" t="n" s="11">
-        <v>40963.0</v>
+        <v>40966.0</v>
       </c>
       <c r="DM27" t="n" s="11">
-        <v>41004.0</v>
+        <v>41005.0</v>
       </c>
       <c r="DN27" t="n" s="11">
-        <v>41081.0</v>
+        <v>41078.0</v>
       </c>
       <c r="DO27" t="n" s="11">
-        <v>41159.0</v>
+        <v>41157.0</v>
       </c>
       <c r="DP27" t="n" s="11">
-        <v>40629.0</v>
+        <v>40633.0</v>
       </c>
       <c r="DQ27" t="n" s="11">
-        <v>40616.0</v>
+        <v>40618.0</v>
       </c>
       <c r="DR27" t="n" s="11">
-        <v>40662.0</v>
+        <v>40655.0</v>
       </c>
       <c r="DS27" t="n" s="11">
-        <v>40631.0</v>
+        <v>40632.0</v>
       </c>
       <c r="DT27" t="n" s="11">
-        <v>40729.0</v>
-      </c>
-      <c r="DU27" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV27" t="s" s="11">
-        <v>43</v>
+        <v>40764.0</v>
+      </c>
+      <c r="DU27" t="n" s="11">
+        <v>40973.0</v>
+      </c>
+      <c r="DV27" t="n" s="11">
+        <v>41126.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s" s="14">
         <v>42</v>
@@ -11229,7 +11226,7 @@
         <v>113.0</v>
       </c>
       <c r="AY28" t="n" s="11">
-        <v>126.0</v>
+        <v>127.0</v>
       </c>
       <c r="AZ28" t="n" s="11">
         <v>138.0</v>
@@ -11409,10 +11406,10 @@
         <v>129.0</v>
       </c>
       <c r="DG28" t="n" s="11">
-        <v>130.0</v>
+        <v>129.0</v>
       </c>
       <c r="DH28" t="n" s="11">
-        <v>139.0</v>
+        <v>140.0</v>
       </c>
       <c r="DI28" t="n" s="11">
         <v>145.0</v>
@@ -11421,45 +11418,45 @@
         <v>145.0</v>
       </c>
       <c r="DK28" t="n" s="11">
-        <v>139.0</v>
+        <v>138.0</v>
       </c>
       <c r="DL28" t="n" s="11">
         <v>146.0</v>
       </c>
       <c r="DM28" t="n" s="11">
-        <v>145.0</v>
+        <v>146.0</v>
       </c>
       <c r="DN28" t="n" s="11">
         <v>143.0</v>
       </c>
       <c r="DO28" t="n" s="11">
-        <v>136.0</v>
+        <v>135.0</v>
       </c>
       <c r="DP28" t="n" s="11">
-        <v>82.0</v>
+        <v>83.0</v>
       </c>
       <c r="DQ28" t="n" s="11">
-        <v>66.0</v>
+        <v>67.0</v>
       </c>
       <c r="DR28" t="n" s="11">
-        <v>96.0</v>
+        <v>97.0</v>
       </c>
       <c r="DS28" t="n" s="11">
-        <v>119.0</v>
+        <v>118.0</v>
       </c>
       <c r="DT28" t="n" s="11">
         <v>117.0</v>
       </c>
-      <c r="DU28" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV28" t="s" s="11">
-        <v>43</v>
+      <c r="DU28" t="n" s="11">
+        <v>110.0</v>
+      </c>
+      <c r="DV28" t="n" s="11">
+        <v>120.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="10">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s" s="14">
         <v>42</v>
@@ -11510,7 +11507,7 @@
         <v>34123.0</v>
       </c>
       <c r="R29" t="n" s="11">
-        <v>34195.0</v>
+        <v>34194.0</v>
       </c>
       <c r="S29" t="n" s="11">
         <v>34225.0</v>
@@ -11582,7 +11579,7 @@
         <v>36014.0</v>
       </c>
       <c r="AP29" t="n" s="11">
-        <v>36012.0</v>
+        <v>36011.0</v>
       </c>
       <c r="AQ29" t="n" s="11">
         <v>35904.0</v>
@@ -11621,7 +11618,7 @@
         <v>35033.0</v>
       </c>
       <c r="BC29" t="n" s="11">
-        <v>35108.0</v>
+        <v>35107.0</v>
       </c>
       <c r="BD29" t="n" s="11">
         <v>35162.0</v>
@@ -11630,7 +11627,7 @@
         <v>35097.0</v>
       </c>
       <c r="BF29" t="n" s="11">
-        <v>35036.0</v>
+        <v>35037.0</v>
       </c>
       <c r="BG29" t="n" s="11">
         <v>34903.0</v>
@@ -11651,13 +11648,13 @@
         <v>35083.0</v>
       </c>
       <c r="BM29" t="n" s="11">
-        <v>35280.0</v>
+        <v>35279.0</v>
       </c>
       <c r="BN29" t="n" s="11">
         <v>35415.0</v>
       </c>
       <c r="BO29" t="n" s="11">
-        <v>35599.0</v>
+        <v>35598.0</v>
       </c>
       <c r="BP29" t="n" s="11">
         <v>35743.0</v>
@@ -11666,19 +11663,19 @@
         <v>35862.0</v>
       </c>
       <c r="BR29" t="n" s="11">
-        <v>36012.0</v>
+        <v>36013.0</v>
       </c>
       <c r="BS29" t="n" s="11">
         <v>36228.0</v>
       </c>
       <c r="BT29" t="n" s="11">
-        <v>36299.0</v>
+        <v>36298.0</v>
       </c>
       <c r="BU29" t="n" s="11">
         <v>36410.0</v>
       </c>
       <c r="BV29" t="n" s="11">
-        <v>36505.0</v>
+        <v>36506.0</v>
       </c>
       <c r="BW29" t="n" s="11">
         <v>36533.0</v>
@@ -11732,7 +11729,7 @@
         <v>37741.0</v>
       </c>
       <c r="CN29" t="n" s="11">
-        <v>37789.0</v>
+        <v>37788.0</v>
       </c>
       <c r="CO29" t="n" s="11">
         <v>37899.0</v>
@@ -11771,75 +11768,75 @@
         <v>39241.0</v>
       </c>
       <c r="DA29" t="n" s="11">
-        <v>39394.0</v>
+        <v>39395.0</v>
       </c>
       <c r="DB29" t="n" s="11">
         <v>39578.0</v>
       </c>
       <c r="DC29" t="n" s="11">
-        <v>39722.0</v>
+        <v>39721.0</v>
       </c>
       <c r="DD29" t="n" s="11">
         <v>39900.0</v>
       </c>
       <c r="DE29" t="n" s="11">
-        <v>40072.0</v>
+        <v>40073.0</v>
       </c>
       <c r="DF29" t="n" s="11">
-        <v>40222.0</v>
+        <v>40221.0</v>
       </c>
       <c r="DG29" t="n" s="11">
-        <v>40425.0</v>
+        <v>40424.0</v>
       </c>
       <c r="DH29" t="n" s="11">
-        <v>40583.0</v>
+        <v>40584.0</v>
       </c>
       <c r="DI29" t="n" s="11">
-        <v>40708.0</v>
+        <v>40709.0</v>
       </c>
       <c r="DJ29" t="n" s="11">
-        <v>40827.0</v>
+        <v>40825.0</v>
       </c>
       <c r="DK29" t="n" s="11">
-        <v>40987.0</v>
+        <v>40985.0</v>
       </c>
       <c r="DL29" t="n" s="11">
-        <v>41109.0</v>
+        <v>41112.0</v>
       </c>
       <c r="DM29" t="n" s="11">
-        <v>41149.0</v>
+        <v>41151.0</v>
       </c>
       <c r="DN29" t="n" s="11">
-        <v>41224.0</v>
+        <v>41221.0</v>
       </c>
       <c r="DO29" t="n" s="11">
-        <v>41295.0</v>
+        <v>41292.0</v>
       </c>
       <c r="DP29" t="n" s="11">
-        <v>40711.0</v>
+        <v>40716.0</v>
       </c>
       <c r="DQ29" t="n" s="11">
-        <v>40682.0</v>
+        <v>40685.0</v>
       </c>
       <c r="DR29" t="n" s="11">
-        <v>40758.0</v>
+        <v>40752.0</v>
       </c>
       <c r="DS29" t="n" s="11">
         <v>40750.0</v>
       </c>
       <c r="DT29" t="n" s="11">
-        <v>40846.0</v>
-      </c>
-      <c r="DU29" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV29" t="s" s="11">
-        <v>43</v>
+        <v>40881.0</v>
+      </c>
+      <c r="DU29" t="n" s="11">
+        <v>41083.0</v>
+      </c>
+      <c r="DV29" t="n" s="11">
+        <v>41246.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s" s="14">
         <v>42</v>
@@ -11890,7 +11887,7 @@
         <v>3757.0</v>
       </c>
       <c r="R30" t="n" s="11">
-        <v>3772.0</v>
+        <v>3773.0</v>
       </c>
       <c r="S30" t="n" s="11">
         <v>3773.0</v>
@@ -11914,7 +11911,7 @@
         <v>3864.0</v>
       </c>
       <c r="Z30" t="n" s="11">
-        <v>3879.0</v>
+        <v>3878.0</v>
       </c>
       <c r="AA30" t="n" s="11">
         <v>3898.0</v>
@@ -11938,7 +11935,7 @@
         <v>3968.0</v>
       </c>
       <c r="AH30" t="n" s="11">
-        <v>3975.0</v>
+        <v>3974.0</v>
       </c>
       <c r="AI30" t="n" s="11">
         <v>3984.0</v>
@@ -11953,7 +11950,7 @@
         <v>4000.0</v>
       </c>
       <c r="AM30" t="n" s="11">
-        <v>4006.0</v>
+        <v>4005.0</v>
       </c>
       <c r="AN30" t="n" s="11">
         <v>4010.0</v>
@@ -11962,7 +11959,7 @@
         <v>4015.0</v>
       </c>
       <c r="AP30" t="n" s="11">
-        <v>4020.0</v>
+        <v>4021.0</v>
       </c>
       <c r="AQ30" t="n" s="11">
         <v>4017.0</v>
@@ -11989,7 +11986,7 @@
         <v>4085.0</v>
       </c>
       <c r="AY30" t="n" s="11">
-        <v>4100.0</v>
+        <v>4099.0</v>
       </c>
       <c r="AZ30" t="n" s="11">
         <v>4120.0</v>
@@ -12001,7 +11998,7 @@
         <v>4172.0</v>
       </c>
       <c r="BC30" t="n" s="11">
-        <v>4213.0</v>
+        <v>4214.0</v>
       </c>
       <c r="BD30" t="n" s="11">
         <v>4245.0</v>
@@ -12010,7 +12007,7 @@
         <v>4276.0</v>
       </c>
       <c r="BF30" t="n" s="11">
-        <v>4309.0</v>
+        <v>4308.0</v>
       </c>
       <c r="BG30" t="n" s="11">
         <v>4348.0</v>
@@ -12019,7 +12016,7 @@
         <v>4374.0</v>
       </c>
       <c r="BI30" t="n" s="11">
-        <v>4394.0</v>
+        <v>4395.0</v>
       </c>
       <c r="BJ30" t="n" s="11">
         <v>4409.0</v>
@@ -12028,16 +12025,16 @@
         <v>4422.0</v>
       </c>
       <c r="BL30" t="n" s="11">
-        <v>4431.0</v>
+        <v>4432.0</v>
       </c>
       <c r="BM30" t="n" s="11">
-        <v>4440.0</v>
+        <v>4441.0</v>
       </c>
       <c r="BN30" t="n" s="11">
-        <v>4450.0</v>
+        <v>4451.0</v>
       </c>
       <c r="BO30" t="n" s="11">
-        <v>4460.0</v>
+        <v>4461.0</v>
       </c>
       <c r="BP30" t="n" s="11">
         <v>4468.0</v>
@@ -12046,19 +12043,19 @@
         <v>4472.0</v>
       </c>
       <c r="BR30" t="n" s="11">
-        <v>4475.0</v>
+        <v>4474.0</v>
       </c>
       <c r="BS30" t="n" s="11">
+        <v>4477.0</v>
+      </c>
+      <c r="BT30" t="n" s="11">
         <v>4478.0</v>
-      </c>
-      <c r="BT30" t="n" s="11">
-        <v>4477.0</v>
       </c>
       <c r="BU30" t="n" s="11">
         <v>4479.0</v>
       </c>
       <c r="BV30" t="n" s="11">
-        <v>4483.0</v>
+        <v>4482.0</v>
       </c>
       <c r="BW30" t="n" s="11">
         <v>4483.0</v>
@@ -12112,7 +12109,7 @@
         <v>4506.0</v>
       </c>
       <c r="CN30" t="n" s="11">
-        <v>4498.0</v>
+        <v>4499.0</v>
       </c>
       <c r="CO30" t="n" s="11">
         <v>4492.0</v>
@@ -12145,13 +12142,13 @@
         <v>4383.0</v>
       </c>
       <c r="CY30" t="n" s="11">
-        <v>4369.0</v>
+        <v>4368.0</v>
       </c>
       <c r="CZ30" t="n" s="11">
         <v>4351.0</v>
       </c>
       <c r="DA30" t="n" s="11">
-        <v>4333.0</v>
+        <v>4332.0</v>
       </c>
       <c r="DB30" t="n" s="11">
         <v>4314.0</v>
@@ -12169,57 +12166,57 @@
         <v>4254.0</v>
       </c>
       <c r="DG30" t="n" s="11">
-        <v>4242.0</v>
+        <v>4243.0</v>
       </c>
       <c r="DH30" t="n" s="11">
-        <v>4231.0</v>
+        <v>4232.0</v>
       </c>
       <c r="DI30" t="n" s="11">
-        <v>4216.0</v>
+        <v>4217.0</v>
       </c>
       <c r="DJ30" t="n" s="11">
         <v>4203.0</v>
       </c>
       <c r="DK30" t="n" s="11">
-        <v>4187.0</v>
+        <v>4186.0</v>
       </c>
       <c r="DL30" t="n" s="11">
-        <v>4165.0</v>
+        <v>4166.0</v>
       </c>
       <c r="DM30" t="n" s="11">
         <v>4139.0</v>
       </c>
       <c r="DN30" t="n" s="11">
-        <v>4115.0</v>
+        <v>4113.0</v>
       </c>
       <c r="DO30" t="n" s="11">
         <v>4087.0</v>
       </c>
       <c r="DP30" t="n" s="11">
-        <v>4054.0</v>
+        <v>4055.0</v>
       </c>
       <c r="DQ30" t="n" s="11">
         <v>4025.0</v>
       </c>
       <c r="DR30" t="n" s="11">
-        <v>3985.0</v>
+        <v>3984.0</v>
       </c>
       <c r="DS30" t="n" s="11">
-        <v>3950.0</v>
+        <v>3948.0</v>
       </c>
       <c r="DT30" t="n" s="11">
         <v>3929.0</v>
       </c>
-      <c r="DU30" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV30" t="s" s="11">
-        <v>43</v>
+      <c r="DU30" t="n" s="11">
+        <v>3922.0</v>
+      </c>
+      <c r="DV30" t="n" s="11">
+        <v>3916.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="10">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s" s="14">
         <v>42</v>
@@ -12294,7 +12291,7 @@
         <v>38055.0</v>
       </c>
       <c r="Z31" t="n" s="11">
-        <v>38005.0</v>
+        <v>38004.0</v>
       </c>
       <c r="AA31" t="n" s="11">
         <v>37958.0</v>
@@ -12318,7 +12315,7 @@
         <v>38627.0</v>
       </c>
       <c r="AH31" t="n" s="11">
-        <v>38785.0</v>
+        <v>38784.0</v>
       </c>
       <c r="AI31" t="n" s="11">
         <v>38871.0</v>
@@ -12333,7 +12330,7 @@
         <v>39476.0</v>
       </c>
       <c r="AM31" t="n" s="11">
-        <v>39848.0</v>
+        <v>39847.0</v>
       </c>
       <c r="AN31" t="n" s="11">
         <v>39976.0</v>
@@ -12369,7 +12366,7 @@
         <v>39468.0</v>
       </c>
       <c r="AY31" t="n" s="11">
-        <v>39352.0</v>
+        <v>39351.0</v>
       </c>
       <c r="AZ31" t="n" s="11">
         <v>39182.0</v>
@@ -12399,7 +12396,7 @@
         <v>39233.0</v>
       </c>
       <c r="BI31" t="n" s="11">
-        <v>39323.0</v>
+        <v>39324.0</v>
       </c>
       <c r="BJ31" t="n" s="11">
         <v>39437.0</v>
@@ -12408,13 +12405,13 @@
         <v>39277.0</v>
       </c>
       <c r="BL31" t="n" s="11">
-        <v>39514.0</v>
+        <v>39515.0</v>
       </c>
       <c r="BM31" t="n" s="11">
         <v>39720.0</v>
       </c>
       <c r="BN31" t="n" s="11">
-        <v>39865.0</v>
+        <v>39866.0</v>
       </c>
       <c r="BO31" t="n" s="11">
         <v>40059.0</v>
@@ -12429,7 +12426,7 @@
         <v>40487.0</v>
       </c>
       <c r="BS31" t="n" s="11">
-        <v>40706.0</v>
+        <v>40705.0</v>
       </c>
       <c r="BT31" t="n" s="11">
         <v>40776.0</v>
@@ -12525,7 +12522,7 @@
         <v>43330.0</v>
       </c>
       <c r="CY31" t="n" s="11">
-        <v>43441.0</v>
+        <v>43440.0</v>
       </c>
       <c r="CZ31" t="n" s="11">
         <v>43592.0</v>
@@ -12537,72 +12534,72 @@
         <v>43892.0</v>
       </c>
       <c r="DC31" t="n" s="11">
-        <v>44017.0</v>
+        <v>44016.0</v>
       </c>
       <c r="DD31" t="n" s="11">
         <v>44178.0</v>
       </c>
       <c r="DE31" t="n" s="11">
-        <v>44336.0</v>
+        <v>44337.0</v>
       </c>
       <c r="DF31" t="n" s="11">
-        <v>44476.0</v>
+        <v>44475.0</v>
       </c>
       <c r="DG31" t="n" s="11">
         <v>44667.0</v>
       </c>
       <c r="DH31" t="n" s="11">
-        <v>44814.0</v>
+        <v>44816.0</v>
       </c>
       <c r="DI31" t="n" s="11">
-        <v>44924.0</v>
+        <v>44926.0</v>
       </c>
       <c r="DJ31" t="n" s="11">
-        <v>45030.0</v>
+        <v>45028.0</v>
       </c>
       <c r="DK31" t="n" s="11">
-        <v>45174.0</v>
+        <v>45171.0</v>
       </c>
       <c r="DL31" t="n" s="11">
-        <v>45274.0</v>
+        <v>45278.0</v>
       </c>
       <c r="DM31" t="n" s="11">
-        <v>45288.0</v>
+        <v>45290.0</v>
       </c>
       <c r="DN31" t="n" s="11">
-        <v>45339.0</v>
+        <v>45334.0</v>
       </c>
       <c r="DO31" t="n" s="11">
-        <v>45382.0</v>
+        <v>45379.0</v>
       </c>
       <c r="DP31" t="n" s="11">
-        <v>44765.0</v>
+        <v>44771.0</v>
       </c>
       <c r="DQ31" t="n" s="11">
-        <v>44707.0</v>
+        <v>44710.0</v>
       </c>
       <c r="DR31" t="n" s="11">
-        <v>44743.0</v>
+        <v>44736.0</v>
       </c>
       <c r="DS31" t="n" s="11">
-        <v>44700.0</v>
+        <v>44698.0</v>
       </c>
       <c r="DT31" t="n" s="11">
-        <v>44775.0</v>
-      </c>
-      <c r="DU31" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV31" t="s" s="11">
-        <v>43</v>
+        <v>44810.0</v>
+      </c>
+      <c r="DU31" t="n" s="11">
+        <v>45005.0</v>
+      </c>
+      <c r="DV31" t="n" s="11">
+        <v>45162.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="10">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s" s="14">
         <v>55</v>
-      </c>
-      <c r="B32" t="s" s="14">
-        <v>56</v>
       </c>
       <c r="C32" t="n" s="11">
         <v>51.8</v>
@@ -12944,19 +12941,19 @@
         <v>55.9</v>
       </c>
       <c r="DL32" t="n" s="11">
-        <v>56.0</v>
+        <v>55.9</v>
       </c>
       <c r="DM32" t="n" s="11">
         <v>55.9</v>
       </c>
       <c r="DN32" t="n" s="11">
-        <v>56.1</v>
+        <v>56.0</v>
       </c>
       <c r="DO32" t="n" s="11">
         <v>56.2</v>
       </c>
       <c r="DP32" t="n" s="11">
-        <v>55.7</v>
+        <v>55.8</v>
       </c>
       <c r="DQ32" t="n" s="11">
         <v>55.8</v>
@@ -12970,19 +12967,19 @@
       <c r="DT32" t="n" s="11">
         <v>55.6</v>
       </c>
-      <c r="DU32" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV32" t="s" s="11">
-        <v>43</v>
+      <c r="DU32" t="n" s="11">
+        <v>55.7</v>
+      </c>
+      <c r="DV32" t="n" s="11">
+        <v>55.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s" s="14">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" t="n" s="11">
         <v>5.0</v>
@@ -13348,18 +13345,18 @@
         <v>3.6</v>
       </c>
       <c r="DT33" t="n" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="DU33" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV33" t="s" s="11">
-        <v>43</v>
+        <v>3.4</v>
+      </c>
+      <c r="DU33" t="n" s="11">
+        <v>3.1</v>
+      </c>
+      <c r="DV33" t="n" s="11">
+        <v>3.0</v>
       </c>
     </row>
     <row r="34" ht="33.75" customHeight="true">
       <c r="A34" t="s" s="15">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35">
@@ -13370,40 +13367,40 @@
         <v>42</v>
       </c>
       <c r="C35" t="n" s="11">
-        <v>79821.0</v>
+        <v>79823.0</v>
       </c>
       <c r="D35" t="n" s="11">
-        <v>79920.0</v>
+        <v>79912.0</v>
       </c>
       <c r="E35" t="n" s="11">
-        <v>80016.0</v>
+        <v>80018.0</v>
       </c>
       <c r="F35" t="n" s="11">
-        <v>80135.0</v>
+        <v>80137.0</v>
       </c>
       <c r="G35" t="n" s="11">
-        <v>80274.0</v>
+        <v>80276.0</v>
       </c>
       <c r="H35" t="n" s="11">
-        <v>80413.0</v>
+        <v>80406.0</v>
       </c>
       <c r="I35" t="n" s="11">
-        <v>80579.0</v>
+        <v>80582.0</v>
       </c>
       <c r="J35" t="n" s="11">
-        <v>80739.0</v>
+        <v>80741.0</v>
       </c>
       <c r="K35" t="n" s="11">
-        <v>80835.0</v>
+        <v>80836.0</v>
       </c>
       <c r="L35" t="n" s="11">
-        <v>80934.0</v>
+        <v>80930.0</v>
       </c>
       <c r="M35" t="n" s="11">
-        <v>80996.0</v>
+        <v>80997.0</v>
       </c>
       <c r="N35" t="n" s="11">
-        <v>81032.0</v>
+        <v>81033.0</v>
       </c>
       <c r="O35" t="n" s="11">
         <v>81105.0</v>
@@ -13715,75 +13712,75 @@
         <v>83111.0</v>
       </c>
       <c r="DN35" t="n" s="11">
-        <v>83139.0</v>
+        <v>83141.0</v>
       </c>
       <c r="DO35" t="n" s="11">
-        <v>83170.0</v>
+        <v>83167.0</v>
       </c>
       <c r="DP35" t="n" s="11">
-        <v>83156.0</v>
+        <v>83157.0</v>
       </c>
       <c r="DQ35" t="n" s="11">
-        <v>83163.0</v>
+        <v>83162.0</v>
       </c>
       <c r="DR35" t="n" s="11">
-        <v>83154.0</v>
+        <v>83158.0</v>
       </c>
       <c r="DS35" t="n" s="11">
-        <v>83128.0</v>
+        <v>83155.0</v>
       </c>
       <c r="DT35" t="n" s="11">
-        <v>83150.0</v>
-      </c>
-      <c r="DU35" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV35" t="s" s="11">
-        <v>43</v>
+        <v>83182.0</v>
+      </c>
+      <c r="DU35" t="n" s="11">
+        <v>83208.0</v>
+      </c>
+      <c r="DV35" t="n" s="11">
+        <v>83236.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s" s="14">
         <v>42</v>
       </c>
       <c r="C36" t="n" s="11">
-        <v>38546.0</v>
+        <v>38548.0</v>
       </c>
       <c r="D36" t="n" s="11">
-        <v>38771.0</v>
+        <v>38763.0</v>
       </c>
       <c r="E36" t="n" s="11">
-        <v>39035.0</v>
+        <v>39037.0</v>
       </c>
       <c r="F36" t="n" s="11">
-        <v>39141.0</v>
+        <v>39143.0</v>
       </c>
       <c r="G36" t="n" s="11">
-        <v>39307.0</v>
+        <v>39309.0</v>
       </c>
       <c r="H36" t="n" s="11">
-        <v>39440.0</v>
+        <v>39433.0</v>
       </c>
       <c r="I36" t="n" s="11">
-        <v>39607.0</v>
+        <v>39610.0</v>
       </c>
       <c r="J36" t="n" s="11">
-        <v>39824.0</v>
+        <v>39826.0</v>
       </c>
       <c r="K36" t="n" s="11">
-        <v>39946.0</v>
+        <v>39947.0</v>
       </c>
       <c r="L36" t="n" s="11">
+        <v>40053.0</v>
+      </c>
+      <c r="M36" t="n" s="11">
+        <v>40076.0</v>
+      </c>
+      <c r="N36" t="n" s="11">
         <v>40057.0</v>
-      </c>
-      <c r="M36" t="n" s="11">
-        <v>40075.0</v>
-      </c>
-      <c r="N36" t="n" s="11">
-        <v>40056.0</v>
       </c>
       <c r="O36" t="n" s="11">
         <v>39995.0</v>
@@ -13924,19 +13921,19 @@
         <v>37643.0</v>
       </c>
       <c r="BI36" t="n" s="11">
+        <v>37639.0</v>
+      </c>
+      <c r="BJ36" t="n" s="11">
         <v>37629.0</v>
       </c>
-      <c r="BJ36" t="n" s="11">
-        <v>37619.0</v>
-      </c>
       <c r="BK36" t="n" s="11">
-        <v>37734.0</v>
+        <v>37744.0</v>
       </c>
       <c r="BL36" t="n" s="11">
-        <v>37629.0</v>
+        <v>37639.0</v>
       </c>
       <c r="BM36" t="n" s="11">
-        <v>37516.0</v>
+        <v>37526.0</v>
       </c>
       <c r="BN36" t="n" s="11">
         <v>37461.0</v>
@@ -13978,22 +13975,22 @@
         <v>36510.0</v>
       </c>
       <c r="CA36" t="n" s="11">
-        <v>36516.0</v>
+        <v>36526.0</v>
       </c>
       <c r="CB36" t="n" s="11">
-        <v>36461.0</v>
+        <v>36471.0</v>
       </c>
       <c r="CC36" t="n" s="11">
-        <v>36435.0</v>
+        <v>36445.0</v>
       </c>
       <c r="CD36" t="n" s="11">
         <v>36419.0</v>
       </c>
       <c r="CE36" t="n" s="11">
-        <v>36402.0</v>
+        <v>36392.0</v>
       </c>
       <c r="CF36" t="n" s="11">
-        <v>36378.0</v>
+        <v>36368.0</v>
       </c>
       <c r="CG36" t="n" s="11">
         <v>36359.0</v>
@@ -14089,42 +14086,42 @@
         <v>36684.0</v>
       </c>
       <c r="DL36" t="n" s="11">
-        <v>36561.0</v>
+        <v>36563.0</v>
       </c>
       <c r="DM36" t="n" s="11">
-        <v>36566.0</v>
+        <v>36567.0</v>
       </c>
       <c r="DN36" t="n" s="11">
-        <v>36537.0</v>
+        <v>36534.0</v>
       </c>
       <c r="DO36" t="n" s="11">
-        <v>36485.0</v>
+        <v>36480.0</v>
       </c>
       <c r="DP36" t="n" s="11">
-        <v>36737.0</v>
+        <v>36730.0</v>
       </c>
       <c r="DQ36" t="n" s="11">
-        <v>36746.0</v>
+        <v>36769.0</v>
       </c>
       <c r="DR36" t="n" s="11">
-        <v>36806.0</v>
+        <v>36829.0</v>
       </c>
       <c r="DS36" t="n" s="11">
-        <v>36939.0</v>
+        <v>36996.0</v>
       </c>
       <c r="DT36" t="n" s="11">
-        <v>36778.0</v>
-      </c>
-      <c r="DU36" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV36" t="s" s="11">
-        <v>43</v>
+        <v>36849.0</v>
+      </c>
+      <c r="DU36" t="n" s="11">
+        <v>36844.0</v>
+      </c>
+      <c r="DV36" t="n" s="11">
+        <v>36833.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="10">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s" s="14">
         <v>42</v>
@@ -14304,19 +14301,19 @@
         <v>43710.0</v>
       </c>
       <c r="BI37" t="n" s="11">
-        <v>43695.0</v>
+        <v>43685.0</v>
       </c>
       <c r="BJ37" t="n" s="11">
-        <v>43668.0</v>
+        <v>43658.0</v>
       </c>
       <c r="BK37" t="n" s="11">
-        <v>43511.0</v>
+        <v>43501.0</v>
       </c>
       <c r="BL37" t="n" s="11">
-        <v>43571.0</v>
+        <v>43561.0</v>
       </c>
       <c r="BM37" t="n" s="11">
-        <v>43633.0</v>
+        <v>43623.0</v>
       </c>
       <c r="BN37" t="n" s="11">
         <v>43637.0</v>
@@ -14358,22 +14355,22 @@
         <v>43886.0</v>
       </c>
       <c r="CA37" t="n" s="11">
-        <v>43814.0</v>
+        <v>43804.0</v>
       </c>
       <c r="CB37" t="n" s="11">
-        <v>43836.0</v>
+        <v>43826.0</v>
       </c>
       <c r="CC37" t="n" s="11">
-        <v>43830.0</v>
+        <v>43820.0</v>
       </c>
       <c r="CD37" t="n" s="11">
         <v>43833.0</v>
       </c>
       <c r="CE37" t="n" s="11">
-        <v>43852.0</v>
+        <v>43862.0</v>
       </c>
       <c r="CF37" t="n" s="11">
-        <v>43882.0</v>
+        <v>43892.0</v>
       </c>
       <c r="CG37" t="n" s="11">
         <v>43924.0</v>
@@ -14469,42 +14466,42 @@
         <v>46352.0</v>
       </c>
       <c r="DL37" t="n" s="11">
-        <v>46524.0</v>
+        <v>46522.0</v>
       </c>
       <c r="DM37" t="n" s="11">
-        <v>46545.0</v>
+        <v>46544.0</v>
       </c>
       <c r="DN37" t="n" s="11">
-        <v>46602.0</v>
+        <v>46607.0</v>
       </c>
       <c r="DO37" t="n" s="11">
-        <v>46685.0</v>
+        <v>46687.0</v>
       </c>
       <c r="DP37" t="n" s="11">
-        <v>46419.0</v>
+        <v>46427.0</v>
       </c>
       <c r="DQ37" t="n" s="11">
-        <v>46417.0</v>
+        <v>46393.0</v>
       </c>
       <c r="DR37" t="n" s="11">
-        <v>46348.0</v>
+        <v>46329.0</v>
       </c>
       <c r="DS37" t="n" s="11">
-        <v>46189.0</v>
+        <v>46159.0</v>
       </c>
       <c r="DT37" t="n" s="11">
-        <v>46372.0</v>
-      </c>
-      <c r="DU37" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV37" t="s" s="11">
-        <v>43</v>
+        <v>46333.0</v>
+      </c>
+      <c r="DU37" t="n" s="11">
+        <v>46364.0</v>
+      </c>
+      <c r="DV37" t="n" s="11">
+        <v>46403.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s" s="14">
         <v>42</v>
@@ -14684,19 +14681,19 @@
         <v>4570.0</v>
       </c>
       <c r="BI38" t="n" s="11">
-        <v>4510.0</v>
+        <v>4500.0</v>
       </c>
       <c r="BJ38" t="n" s="11">
-        <v>4380.0</v>
+        <v>4370.0</v>
       </c>
       <c r="BK38" t="n" s="11">
-        <v>4250.0</v>
+        <v>4240.0</v>
       </c>
       <c r="BL38" t="n" s="11">
-        <v>4130.0</v>
+        <v>4120.0</v>
       </c>
       <c r="BM38" t="n" s="11">
-        <v>4000.0</v>
+        <v>3990.0</v>
       </c>
       <c r="BN38" t="n" s="11">
         <v>3860.0</v>
@@ -14738,22 +14735,22 @@
         <v>3080.0</v>
       </c>
       <c r="CA38" t="n" s="11">
-        <v>2990.0</v>
+        <v>2980.0</v>
       </c>
       <c r="CB38" t="n" s="11">
-        <v>2880.0</v>
+        <v>2870.0</v>
       </c>
       <c r="CC38" t="n" s="11">
-        <v>2760.0</v>
+        <v>2750.0</v>
       </c>
       <c r="CD38" t="n" s="11">
         <v>2640.0</v>
       </c>
       <c r="CE38" t="n" s="11">
-        <v>2530.0</v>
+        <v>2540.0</v>
       </c>
       <c r="CF38" t="n" s="11">
-        <v>2440.0</v>
+        <v>2450.0</v>
       </c>
       <c r="CG38" t="n" s="11">
         <v>2360.0</v>
@@ -14864,27 +14861,27 @@
         <v>1650.0</v>
       </c>
       <c r="DQ38" t="n" s="11">
-        <v>1730.0</v>
+        <v>1720.0</v>
       </c>
       <c r="DR38" t="n" s="11">
-        <v>1750.0</v>
+        <v>1720.0</v>
       </c>
       <c r="DS38" t="n" s="11">
-        <v>1700.0</v>
+        <v>1660.0</v>
       </c>
       <c r="DT38" t="n" s="11">
-        <v>1640.0</v>
-      </c>
-      <c r="DU38" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV38" t="s" s="11">
-        <v>43</v>
+        <v>1560.0</v>
+      </c>
+      <c r="DU38" t="n" s="11">
+        <v>1450.0</v>
+      </c>
+      <c r="DV38" t="n" s="11">
+        <v>1380.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s" s="14">
         <v>42</v>
@@ -15229,42 +15226,42 @@
         <v>44972.0</v>
       </c>
       <c r="DL39" t="n" s="11">
-        <v>45174.0</v>
+        <v>45172.0</v>
       </c>
       <c r="DM39" t="n" s="11">
-        <v>45185.0</v>
+        <v>45184.0</v>
       </c>
       <c r="DN39" t="n" s="11">
-        <v>45172.0</v>
+        <v>45177.0</v>
       </c>
       <c r="DO39" t="n" s="11">
-        <v>45145.0</v>
+        <v>45147.0</v>
       </c>
       <c r="DP39" t="n" s="11">
-        <v>44769.0</v>
+        <v>44777.0</v>
       </c>
       <c r="DQ39" t="n" s="11">
-        <v>44687.0</v>
+        <v>44673.0</v>
       </c>
       <c r="DR39" t="n" s="11">
-        <v>44598.0</v>
+        <v>44609.0</v>
       </c>
       <c r="DS39" t="n" s="11">
-        <v>44489.0</v>
+        <v>44499.0</v>
       </c>
       <c r="DT39" t="n" s="11">
-        <v>44732.0</v>
-      </c>
-      <c r="DU39" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV39" t="s" s="11">
-        <v>43</v>
+        <v>44773.0</v>
+      </c>
+      <c r="DU39" t="n" s="11">
+        <v>44914.0</v>
+      </c>
+      <c r="DV39" t="n" s="11">
+        <v>45023.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s" s="14">
         <v>42</v>
@@ -15606,45 +15603,45 @@
         <v>4203.0</v>
       </c>
       <c r="DK40" t="n" s="11">
-        <v>4186.0</v>
+        <v>4187.0</v>
       </c>
       <c r="DL40" t="n" s="11">
-        <v>4166.0</v>
+        <v>4165.0</v>
       </c>
       <c r="DM40" t="n" s="11">
         <v>4139.0</v>
       </c>
       <c r="DN40" t="n" s="11">
-        <v>4115.0</v>
+        <v>4114.0</v>
       </c>
       <c r="DO40" t="n" s="11">
-        <v>4088.0</v>
+        <v>4089.0</v>
       </c>
       <c r="DP40" t="n" s="11">
-        <v>4054.0</v>
+        <v>4055.0</v>
       </c>
       <c r="DQ40" t="n" s="11">
-        <v>4024.0</v>
+        <v>4023.0</v>
       </c>
       <c r="DR40" t="n" s="11">
-        <v>3986.0</v>
+        <v>3984.0</v>
       </c>
       <c r="DS40" t="n" s="11">
-        <v>3950.0</v>
+        <v>3951.0</v>
       </c>
       <c r="DT40" t="n" s="11">
-        <v>3927.0</v>
-      </c>
-      <c r="DU40" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV40" t="s" s="11">
-        <v>43</v>
+        <v>3930.0</v>
+      </c>
+      <c r="DU40" t="n" s="11">
+        <v>3920.0</v>
+      </c>
+      <c r="DV40" t="n" s="11">
+        <v>3914.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s" s="14">
         <v>42</v>
@@ -15986,45 +15983,45 @@
         <v>40692.0</v>
       </c>
       <c r="DK41" t="n" s="11">
-        <v>40786.0</v>
+        <v>40785.0</v>
       </c>
       <c r="DL41" t="n" s="11">
-        <v>41008.0</v>
+        <v>41007.0</v>
       </c>
       <c r="DM41" t="n" s="11">
-        <v>41046.0</v>
+        <v>41045.0</v>
       </c>
       <c r="DN41" t="n" s="11">
-        <v>41057.0</v>
+        <v>41063.0</v>
       </c>
       <c r="DO41" t="n" s="11">
-        <v>41057.0</v>
+        <v>41058.0</v>
       </c>
       <c r="DP41" t="n" s="11">
-        <v>40715.0</v>
+        <v>40722.0</v>
       </c>
       <c r="DQ41" t="n" s="11">
-        <v>40663.0</v>
+        <v>40650.0</v>
       </c>
       <c r="DR41" t="n" s="11">
-        <v>40612.0</v>
+        <v>40625.0</v>
       </c>
       <c r="DS41" t="n" s="11">
-        <v>40539.0</v>
+        <v>40548.0</v>
       </c>
       <c r="DT41" t="n" s="11">
-        <v>40805.0</v>
-      </c>
-      <c r="DU41" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV41" t="s" s="11">
-        <v>43</v>
+        <v>40843.0</v>
+      </c>
+      <c r="DU41" t="n" s="11">
+        <v>40994.0</v>
+      </c>
+      <c r="DV41" t="n" s="11">
+        <v>41109.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s" s="14">
         <v>42</v>
@@ -16369,42 +16366,42 @@
         <v>139.0</v>
       </c>
       <c r="DL42" t="n" s="11">
-        <v>147.0</v>
+        <v>146.0</v>
       </c>
       <c r="DM42" t="n" s="11">
         <v>151.0</v>
       </c>
       <c r="DN42" t="n" s="11">
-        <v>139.0</v>
+        <v>140.0</v>
       </c>
       <c r="DO42" t="n" s="11">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="DP42" t="n" s="11">
-        <v>86.0</v>
+        <v>82.0</v>
       </c>
       <c r="DQ42" t="n" s="11">
-        <v>79.0</v>
+        <v>82.0</v>
       </c>
       <c r="DR42" t="n" s="11">
-        <v>91.0</v>
+        <v>95.0</v>
       </c>
       <c r="DS42" t="n" s="11">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
       <c r="DT42" t="n" s="11">
-        <v>119.0</v>
-      </c>
-      <c r="DU42" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV42" t="s" s="11">
-        <v>43</v>
+        <v>116.0</v>
+      </c>
+      <c r="DU42" t="n" s="11">
+        <v>126.0</v>
+      </c>
+      <c r="DV42" t="n" s="11">
+        <v>120.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="10">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s" s="14">
         <v>42</v>
@@ -16746,45 +16743,45 @@
         <v>40835.0</v>
       </c>
       <c r="DK43" t="n" s="11">
-        <v>40925.0</v>
+        <v>40924.0</v>
       </c>
       <c r="DL43" t="n" s="11">
-        <v>41155.0</v>
+        <v>41153.0</v>
       </c>
       <c r="DM43" t="n" s="11">
-        <v>41197.0</v>
+        <v>41196.0</v>
       </c>
       <c r="DN43" t="n" s="11">
-        <v>41196.0</v>
+        <v>41203.0</v>
       </c>
       <c r="DO43" t="n" s="11">
         <v>41185.0</v>
       </c>
       <c r="DP43" t="n" s="11">
-        <v>40801.0</v>
+        <v>40804.0</v>
       </c>
       <c r="DQ43" t="n" s="11">
-        <v>40742.0</v>
+        <v>40732.0</v>
       </c>
       <c r="DR43" t="n" s="11">
-        <v>40703.0</v>
+        <v>40720.0</v>
       </c>
       <c r="DS43" t="n" s="11">
-        <v>40646.0</v>
+        <v>40653.0</v>
       </c>
       <c r="DT43" t="n" s="11">
-        <v>40924.0</v>
-      </c>
-      <c r="DU43" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV43" t="s" s="11">
-        <v>43</v>
+        <v>40959.0</v>
+      </c>
+      <c r="DU43" t="n" s="11">
+        <v>41120.0</v>
+      </c>
+      <c r="DV43" t="n" s="11">
+        <v>41229.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s" s="14">
         <v>42</v>
@@ -17126,45 +17123,45 @@
         <v>4203.0</v>
       </c>
       <c r="DK44" t="n" s="11">
-        <v>4186.0</v>
+        <v>4187.0</v>
       </c>
       <c r="DL44" t="n" s="11">
-        <v>4166.0</v>
+        <v>4165.0</v>
       </c>
       <c r="DM44" t="n" s="11">
         <v>4139.0</v>
       </c>
       <c r="DN44" t="n" s="11">
-        <v>4115.0</v>
+        <v>4114.0</v>
       </c>
       <c r="DO44" t="n" s="11">
-        <v>4088.0</v>
+        <v>4089.0</v>
       </c>
       <c r="DP44" t="n" s="11">
-        <v>4054.0</v>
+        <v>4055.0</v>
       </c>
       <c r="DQ44" t="n" s="11">
-        <v>4024.0</v>
+        <v>4023.0</v>
       </c>
       <c r="DR44" t="n" s="11">
-        <v>3986.0</v>
+        <v>3984.0</v>
       </c>
       <c r="DS44" t="n" s="11">
-        <v>3950.0</v>
+        <v>3951.0</v>
       </c>
       <c r="DT44" t="n" s="11">
-        <v>3927.0</v>
-      </c>
-      <c r="DU44" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV44" t="s" s="11">
-        <v>43</v>
+        <v>3930.0</v>
+      </c>
+      <c r="DU44" t="n" s="11">
+        <v>3920.0</v>
+      </c>
+      <c r="DV44" t="n" s="11">
+        <v>3914.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="10">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s" s="14">
         <v>42</v>
@@ -17509,45 +17506,45 @@
         <v>45111.0</v>
       </c>
       <c r="DL45" t="n" s="11">
-        <v>45321.0</v>
+        <v>45318.0</v>
       </c>
       <c r="DM45" t="n" s="11">
-        <v>45336.0</v>
+        <v>45335.0</v>
       </c>
       <c r="DN45" t="n" s="11">
-        <v>45311.0</v>
+        <v>45317.0</v>
       </c>
       <c r="DO45" t="n" s="11">
-        <v>45273.0</v>
+        <v>45274.0</v>
       </c>
       <c r="DP45" t="n" s="11">
-        <v>44855.0</v>
+        <v>44859.0</v>
       </c>
       <c r="DQ45" t="n" s="11">
-        <v>44766.0</v>
+        <v>44755.0</v>
       </c>
       <c r="DR45" t="n" s="11">
-        <v>44689.0</v>
+        <v>44704.0</v>
       </c>
       <c r="DS45" t="n" s="11">
-        <v>44596.0</v>
+        <v>44604.0</v>
       </c>
       <c r="DT45" t="n" s="11">
-        <v>44851.0</v>
-      </c>
-      <c r="DU45" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV45" t="s" s="11">
-        <v>43</v>
+        <v>44889.0</v>
+      </c>
+      <c r="DU45" t="n" s="11">
+        <v>45040.0</v>
+      </c>
+      <c r="DV45" t="n" s="11">
+        <v>45143.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="10">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s" s="14">
         <v>55</v>
-      </c>
-      <c r="B46" t="s" s="14">
-        <v>56</v>
       </c>
       <c r="C46" t="n" s="11">
         <v>51.7</v>
@@ -17730,10 +17727,10 @@
         <v>53.7</v>
       </c>
       <c r="BK46" t="n" s="11">
+        <v>53.5</v>
+      </c>
+      <c r="BL46" t="n" s="11">
         <v>53.6</v>
-      </c>
-      <c r="BL46" t="n" s="11">
-        <v>53.7</v>
       </c>
       <c r="BM46" t="n" s="11">
         <v>53.8</v>
@@ -17790,7 +17787,7 @@
         <v>54.6</v>
       </c>
       <c r="CE46" t="n" s="11">
-        <v>54.6</v>
+        <v>54.7</v>
       </c>
       <c r="CF46" t="n" s="11">
         <v>54.7</v>
@@ -17910,24 +17907,24 @@
         <v>55.7</v>
       </c>
       <c r="DS46" t="n" s="11">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
       <c r="DT46" t="n" s="11">
-        <v>55.8</v>
-      </c>
-      <c r="DU46" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV46" t="s" s="11">
-        <v>43</v>
+        <v>55.7</v>
+      </c>
+      <c r="DU46" t="n" s="11">
+        <v>55.7</v>
+      </c>
+      <c r="DV46" t="n" s="11">
+        <v>55.7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s" s="14">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" t="n" s="11">
         <v>5.0</v>
@@ -18110,13 +18107,13 @@
         <v>10.0</v>
       </c>
       <c r="BK47" t="n" s="11">
-        <v>9.8</v>
+        <v>9.7</v>
       </c>
       <c r="BL47" t="n" s="11">
         <v>9.5</v>
       </c>
       <c r="BM47" t="n" s="11">
-        <v>9.2</v>
+        <v>9.1</v>
       </c>
       <c r="BN47" t="n" s="11">
         <v>8.8</v>
@@ -18161,7 +18158,7 @@
         <v>6.8</v>
       </c>
       <c r="CB47" t="n" s="11">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="CC47" t="n" s="11">
         <v>6.3</v>
@@ -18287,54 +18284,54 @@
         <v>3.7</v>
       </c>
       <c r="DR47" t="n" s="11">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="DS47" t="n" s="11">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="DT47" t="n" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="DU47" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="DV47" t="s" s="11">
-        <v>43</v>
+        <v>3.4</v>
+      </c>
+      <c r="DU47" t="n" s="11">
+        <v>3.1</v>
+      </c>
+      <c r="DV47" t="n" s="11">
+        <v>3.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="12">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="12">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="12">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="12">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="12">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="12">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="13">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -18381,7 +18378,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 09:42:13&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:14:39&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>